--- a/xlsx/美西战争_intext.xlsx
+++ b/xlsx/美西战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>美西战争</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Battle of Manila Bay</t>
   </si>
   <si>
-    <t>政策_政策_美國_美西战争</t>
+    <t>政策_政策_美国_美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1898%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1898年)</t>
+    <t>巴黎条约 (1898年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -89,21 +89,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美菲戰爭</t>
+    <t>美菲战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Nelson_A._Miles</t>
   </si>
   <si>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%A4%B8%E7%88%BE%C2%B7%E5%A1%9E%E9%9F%8B%E6%8B%89</t>
   </si>
   <si>
-    <t>帕斯夸爾·塞韋拉</t>
+    <t>帕斯夸尔·塞韦拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%8E%86%E5%8F%B2</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%8F%8C%E7%8E%8B</t>
@@ -341,9 +338,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -365,19 +359,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國人</t>
+    <t>美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E8%99%9F%E6%88%B0%E8%89%A6_(ACR-1)</t>
   </si>
   <si>
-    <t>緬因號戰艦 (ACR-1)</t>
+    <t>缅因号战舰 (ACR-1)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%93%A6%E9%82%A3</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙軍隊</t>
+    <t>西班牙军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
@@ -419,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E6%88%B0</t>
   </si>
   <si>
-    <t>宣戰</t>
+    <t>宣战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%AE%8B</t>
   </si>
   <si>
-    <t>呂宋</t>
+    <t>吕宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5%C2%B7%E5%BE%B7%C2%B7%E5%8F%A4%E5%B7%B4</t>
@@ -473,15 +467,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B2%E8%AE%93</t>
   </si>
   <si>
-    <t>割讓</t>
+    <t>割让</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
   </si>
   <si>
-    <t>关岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -497,31 +488,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%89%B2%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>黃色新聞</t>
+    <t>黄色新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界戰爭列表</t>
+    <t>世界战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E8%89%B2%E6%96%B0%E9%97%BB</t>
   </si>
   <si>
-    <t>黄色新闻</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%A7%E5%9C%8B%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>Template talk-大國外交</t>
+    <t>Template talk-大国外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%BC%B7</t>
   </si>
   <si>
-    <t>列強</t>
+    <t>列强</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
@@ -533,67 +521,67 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>意大利王國</t>
+    <t>意大利王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
+    <t>奥匈帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第三共和國</t>
+    <t>法兰西第三共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大日本帝國</t>
+    <t>大日本帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>三國同盟</t>
+    <t>三国同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A7%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>德奧同盟</t>
+    <t>德奥同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>三國協約</t>
+    <t>三国协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BF%84%E5%90%8C%E7%9B%9F</t>
@@ -605,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>英法協約</t>
+    <t>英法协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E4%BF%84%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>英俄條約</t>
+    <t>英俄条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%97%A5%E5%90%8C%E7%9B%9F</t>
@@ -629,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E6%9D%B1%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>近東問題</t>
+    <t>近东问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E4%BB%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>復仇主義</t>
+    <t>复仇主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -653,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%96%AF%E6%8B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛斯拉夫主義</t>
+    <t>泛斯拉夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%9A%E5%BC%88</t>
@@ -665,37 +653,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%97%A5%E8%80%B3%E6%9B%BC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛日耳曼主義</t>
+    <t>泛日耳曼主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>法蘭克福條約</t>
+    <t>法兰克福条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1878%E5%B9%B4%E6%9F%8F%E6%9E%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1878年柏林條約</t>
+    <t>1878年柏林条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E4%BF%9D%E9%9A%AA%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>再保險條約</t>
+    <t>再保险条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>地中海協定</t>
+    <t>地中海协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1898%E5%B9%B4%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1898年巴黎條約</t>
+    <t>1898年巴黎条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Treaty_of_Bj%C3%B6rk%C3%B6</t>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/1878%E5%B9%B4%E6%9F%8F%E6%9E%97%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>1878年柏林會議</t>
+    <t>1878年柏林会议</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Flottengesetze</t>
@@ -743,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%B5%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
   </si>
   <si>
-    <t>合併夏威夷</t>
+    <t>合并夏威夷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%92%8C%E5%9C%98%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>義和團運動</t>
+    <t>义和团运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第一次摩洛哥危機</t>
+    <t>第一次摩洛哥危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%95%8F%E5%8F%B7%E6%88%98%E5%88%97%E8%88%B0</t>
@@ -767,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第二次摩洛哥危機</t>
+    <t>第二次摩洛哥危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%8D%B1%E6%9C%BA</t>
@@ -785,19 +773,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E5%8D%88%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>甲午戰爭</t>
+    <t>甲午战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>香蕉戰爭</t>
+    <t>香蕉战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E8%81%94%E5%86%9B%E4%B9%8B%E5%BD%B9</t>
@@ -809,19 +794,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B8%83%E7%88%BE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次布爾戰爭</t>
+    <t>第二次布尔战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>日俄戰爭</t>
+    <t>日俄战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%9C%9F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>義土戰爭</t>
+    <t>义土战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E6%88%98%E4%BA%89</t>
@@ -833,9 +818,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
   </si>
   <si>
@@ -863,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -881,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -917,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -929,25 +911,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>美菲战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -983,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -1013,25 +992,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -1043,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -1055,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -1079,37 +1058,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1121,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1848,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1895,10 +1874,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1924,10 +1903,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1953,10 +1932,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1982,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2011,10 +1990,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2040,10 +2019,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2069,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2098,10 +2077,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2127,10 +2106,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2156,10 +2135,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2185,10 +2164,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2214,10 +2193,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2243,10 +2222,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2272,10 +2251,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2301,10 +2280,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2330,10 +2309,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2359,10 +2338,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2388,10 +2367,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2417,10 +2396,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2446,10 +2425,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2475,10 +2454,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2504,10 +2483,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2533,10 +2512,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2562,10 +2541,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2591,10 +2570,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2620,10 +2599,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2649,10 +2628,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2678,10 +2657,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2707,10 +2686,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2736,10 +2715,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2765,10 +2744,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2794,10 +2773,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2823,10 +2802,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2852,10 +2831,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2881,10 +2860,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2910,10 +2889,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2939,10 +2918,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
         <v>69</v>
-      </c>
-      <c r="F51" t="s">
-        <v>70</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2968,10 +2947,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2997,10 +2976,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3026,10 +3005,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3055,10 +3034,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="G55" t="n">
         <v>19</v>
@@ -3084,10 +3063,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3113,10 +3092,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>30</v>
@@ -3142,10 +3121,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3171,10 +3150,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3200,10 +3179,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3229,10 +3208,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3258,10 +3237,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3287,10 +3266,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3316,10 +3295,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3345,10 +3324,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3374,10 +3353,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3403,10 +3382,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3432,10 +3411,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3461,10 +3440,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3490,10 +3469,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3519,10 +3498,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3548,10 +3527,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
         <v>41</v>
-      </c>
-      <c r="F72" t="s">
-        <v>42</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3577,10 +3556,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3606,10 +3585,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
         <v>31</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3635,10 +3614,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
         <v>33</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3693,10 +3672,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3722,10 +3701,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3751,10 +3730,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3780,10 +3759,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3809,10 +3788,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3838,10 +3817,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3867,10 +3846,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3896,10 +3875,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3925,10 +3904,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3954,10 +3933,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3983,10 +3962,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4012,10 +3991,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4041,10 +4020,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4070,10 +4049,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4099,10 +4078,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4128,10 +4107,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4157,10 +4136,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4186,10 +4165,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4215,10 +4194,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4244,10 +4223,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4273,10 +4252,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4302,10 +4281,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4331,10 +4310,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4360,10 +4339,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4389,10 +4368,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4418,10 +4397,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4447,10 +4426,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4476,10 +4455,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4505,10 +4484,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4534,10 +4513,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4563,10 +4542,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4592,10 +4571,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4621,10 +4600,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4650,10 +4629,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4679,10 +4658,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4708,10 +4687,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4737,10 +4716,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4766,10 +4745,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4795,10 +4774,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4824,10 +4803,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4853,10 +4832,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4882,10 +4861,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4911,10 +4890,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4940,10 +4919,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4969,10 +4948,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4998,10 +4977,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5027,10 +5006,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5056,10 +5035,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5085,10 +5064,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5114,10 +5093,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5143,10 +5122,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5172,10 +5151,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5201,10 +5180,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5230,10 +5209,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5259,10 +5238,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5288,10 +5267,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5317,10 +5296,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5346,10 +5325,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -5375,10 +5354,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5404,10 +5383,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5433,10 +5412,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5462,10 +5441,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5491,10 +5470,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5520,10 +5499,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5549,10 +5528,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="G141" t="n">
         <v>38</v>
@@ -5578,10 +5557,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5607,10 +5586,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5636,10 +5615,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5665,10 +5644,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5694,10 +5673,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5723,10 +5702,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5752,10 +5731,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5781,10 +5760,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5810,10 +5789,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5839,10 +5818,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5868,10 +5847,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5897,10 +5876,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5926,10 +5905,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5955,10 +5934,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5984,10 +5963,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6013,10 +5992,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6042,10 +6021,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6071,10 +6050,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6100,10 +6079,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6129,10 +6108,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6158,10 +6137,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6187,10 +6166,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6216,10 +6195,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6245,10 +6224,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6274,10 +6253,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6303,10 +6282,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6332,10 +6311,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6361,10 +6340,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6390,10 +6369,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6419,10 +6398,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6448,10 +6427,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6477,10 +6456,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6506,10 +6485,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6535,10 +6514,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6564,10 +6543,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6593,10 +6572,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6622,10 +6601,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6651,10 +6630,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6680,10 +6659,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6709,10 +6688,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6738,10 +6717,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6767,10 +6746,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6796,10 +6775,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6825,10 +6804,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6854,10 +6833,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6883,10 +6862,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -6912,10 +6891,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6941,10 +6920,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
